--- a/reverseprimer-v3_40.xlsx
+++ b/reverseprimer-v3_40.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_40" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R3745-AACTCACGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTCACGAAGTCTCGTGGGCTCGG</t>
+    <t>R3745-AACAGTGTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAGTGTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R3746-AGTCGTTCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCGTTCTCGTCTCGTGGGCTCGG</t>
+    <t>R3746-GAAGCTGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGCTGTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R3747-CACAGTGCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACAGTGCAAGTCTCGTGGGCTCGG</t>
+    <t>R3747-AAGACAGCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGACAGCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R3748-CTACACGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACACGTGTGTCTCGTGGGCTCGG</t>
+    <t>R3748-TTGTAGCTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGTAGCTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R3749-GCTCAACTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTCAACTGAGTCTCGTGGGCTCGG</t>
+    <t>R3749-GTTGAGCAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTGAGCAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R3750-ACAAGTTCCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAAGTTCCTGTCTCGTGGGCTCGG</t>
+    <t>R3750-ATCGTTCTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCGTTCTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R3751-ATGGTGTTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGGTGTTGGGTCTCGTGGGCTCGG</t>
+    <t>R3751-GTCGTTGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCGTTGTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R3752-TGTAGTTGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTAGTTGTGGTCTCGTGGGCTCGG</t>
+    <t>R3752-CCTTGTCTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTTGTCTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R3753-AGTTCCACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTTCCACGTGTCTCGTGGGCTCGG</t>
+    <t>R3753-TCAACGTCCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAACGTCCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R3754-AACTGGAGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTGGAGCAGTCTCGTGGGCTCGG</t>
+    <t>R3754-AGTAGCACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTAGCACACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R3755-TTCTACGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCTACGAACGTCTCGTGGGCTCGG</t>
+    <t>R3755-GGTTGAGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTTGAGTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R3756-GTGTGACTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTGACTACGTCTCGTGGGCTCGG</t>
+    <t>R3756-CAAGAACTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGAACTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R3757-GACTAGAGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACTAGAGATGTCTCGTGGGCTCGG</t>
+    <t>R3757-CCTACTGCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTACTGCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R3758-TCAGTGTACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGTGTACTGTCTCGTGGGCTCGG</t>
+    <t>R3758-AGAACCAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAACCAGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>R3759-CCTCTCACAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTCTCACATGTCTCGTGGGCTCGG</t>
+    <t>R3759-ACTCAACGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCAACGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R3760-CAACAGAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACAGAGAGGTCTCGTGGGCTCGG</t>
+    <t>R3760-GATCGACCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCGACCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R3761-GGTCATGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTCATGTACGTCTCGTGGGCTCGG</t>
+    <t>R3761-AAGCAAGCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCAAGCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R3762-ACACATGGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACATGGAAGTCTCGTGGGCTCGG</t>
+    <t>R3762-GTTCACTTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCACTTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>R3763-TACGACTAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACGACTAGTGTCTCGTGGGCTCGG</t>
+    <t>R3763-AACGACATGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGACATGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>R3764-CAAGAAGGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGAAGGTTGTCTCGTGGGCTCGG</t>
+    <t>R3764-GCATCGAACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCATCGAACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>R3765-TTGTGCTCGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGTGCTCGTGTCTCGTGGGCTCGG</t>
+    <t>R3765-GAACCAGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACCAGATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>R3766-CTCTACTGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCTACTGGAGTCTCGTGGGCTCGG</t>
+    <t>R3766-ACACACTCCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACACTCCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>R3767-TCAGATCAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGATCAGAGTCTCGTGGGCTCGG</t>
+    <t>R3767-ACACCATGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACCATGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R3768-GTTCGTCTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCGTCTCTGTCTCGTGGGCTCGG</t>
+    <t>R3768-TACAGCAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACAGCAGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>R3769-ACATGTGCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACATGTGCATGTCTCGTGGGCTCGG</t>
+    <t>R3769-TGCTCAGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCTCAGAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>R3770-ACGTTGTGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGTTGTGAAGTCTCGTGGGCTCGG</t>
+    <t>R3770-TACTCGTCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTCGTCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>R3771-TAGCATGCAG</t>
+    <t>R3771-CTGTAGCAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGTAGCAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>R3772-AGTCGACTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCGACTTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>R3773-CATCAAGGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCAAGGTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>R3774-AAGCTACCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCTACCAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>R3775-CAGTGCAGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGTGCAGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>R3776-TGGACAGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGACAGTACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>R3777-CATGTCAAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGTCAAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>R3778-TTGCTACGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGCTACGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>R3779-GGACTACTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGACTACTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>R3780-CCAGTACGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCAGTACGTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>R3781-GTGGTAGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGGTAGTGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>R3782-TCAAGAGTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAAGAGTCCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>R3783-TGTCCAGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCCAGTTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>R3784-AAGGAACCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGGAACCTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>R3785-CTGTGTTCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGTGTTCAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>R3786-CTTCAACACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTCAACACCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>R3787-ACGAGAGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGAGAGTTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>R3788-AGAAGCAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAAGCAGAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>R3789-TAGCATGCAG</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATTAGCATGCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>R3772-CTAGTGGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTAGTGGTCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>R3773-CGACTGTTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGACTGTTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>R3774-CTGTTCACGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGTTCACGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>R3775-TGTCAAGGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCAAGGACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>R3776-AGCTGTCTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCTGTCTAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>R3777-ACATCGTGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACATCGTGTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>R3778-AACGTCCAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGTCCAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>R3779-AAGAACGTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGAACGTGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>R3780-TTGCACACTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGCACACTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>R3781-ACCTCACACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTCACACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>R3782-GTACAGCAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACAGCAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>R3783-CGTGTGAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTGTGAGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>R3784-AGATGTGAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGATGTGAGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>R3785-CGTACAGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTACAGAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>R3786-GCTAGACACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTAGACACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>R3787-GCTAGATCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTAGATCAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>R3788-ATGCTTCGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGCTTCGTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>R3789-AGACTTCTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACTTCTGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>D10</t>
   </si>
   <si>
-    <t>R3790-CCAGGTACTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCAGGTACTTGTCTCGTGGGCTCGG</t>
+    <t>R3790-CAACAGTGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACAGTGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>R3791-TCACAGGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACAGGTTGGTCTCGTGGGCTCGG</t>
+    <t>R3791-ACAAGATGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAAGATGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>R3792-GTACACTCGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACACTCGTGTCTCGTGGGCTCGG</t>
+    <t>R3792-ATCAACGACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCAACGACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>R3793-GGATCTAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGATCTAGACGTCTCGTGGGCTCGG</t>
+    <t>R3793-AACCAGAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCAGAGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>R3794-TCGTACTCCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGTACTCCTGTCTCGTGGGCTCGG</t>
+    <t>R3794-TCAAGCTGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAAGCTGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>R3795-AACAGTGACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAGTGACGGTCTCGTGGGCTCGG</t>
+    <t>R3795-CCTTCTAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTTCTAGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>R3796-GATCTAGACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCTAGACCGTCTCGTGGGCTCGG</t>
+    <t>R3796-TAGACGTCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGACGTCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>R3797-AGAGTCCACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGTCCACTGTCTCGTGGGCTCGG</t>
+    <t>R3797-GAACAGTCCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACAGTCCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>R3798-ACCTGCTTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTGCTTGTGTCTCGTGGGCTCGG</t>
+    <t>R3798-GAGACAACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGACAACCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>R3799-GGTAGTTCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTAGTTCTAGTCTCGTGGGCTCGG</t>
+    <t>R3799-ACGATCGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGATCGTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>R3800-ACAGGTGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGGTGACTGTCTCGTGGGCTCGG</t>
+    <t>R3800-GTAGTGCATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGTGCATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>R3801-ACAAGTGCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAAGTGCTAGTCTCGTGGGCTCGG</t>
+    <t>R3801-AACATCAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACATCAGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>R3802-TACAAGGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACAAGGTGAGTCTCGTGGGCTCGG</t>
+    <t>R3802-GTTCTCAACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCTCAACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>R3803-GACAAGATCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACAAGATCTGTCTCGTGGGCTCGG</t>
+    <t>R3803-TCGATGACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGATGACTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>R3804-TGGACGAGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGACGAGTAGTCTCGTGGGCTCGG</t>
+    <t>R3804-TTCACTGCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCACTGCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>R3805-GTAGTACGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGTACGACGTCTCGTGGGCTCGG</t>
+    <t>R3805-CGAGGTAGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGAGGTAGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>R3806-GATCCTGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCCTGACTGTCTCGTGGGCTCGG</t>
+    <t>R3806-CATGTGGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGTGGTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>R3807-CTGTCGAGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGTCGAGATGTCTCGTGGGCTCGG</t>
+    <t>R3807-AGTGCTCCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGCTCCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>R3808-AAGTAGTCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTAGTCAGGTCTCGTGGGCTCGG</t>
+    <t>R3808-CTCATCTTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCATCTTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>R3809-TTGTCGTACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGTCGTACGGTCTCGTGGGCTCGG</t>
+    <t>R3809-TTGGTTCTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGGTTCTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>R3810-TCCTCAACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTCAACCAGTCTCGTGGGCTCGG</t>
+    <t>R3810-ATGCTCTTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGCTCTTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>R3811-CGTGTAGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTGTAGTCAGTCTCGTGGGCTCGG</t>
+    <t>R3811-TCGTGGACAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGTGGACATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>R3812-TGGTGACTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGTGACTGAGTCTCGTGGGCTCGG</t>
+    <t>R3812-GGTGAGAAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTGAGAAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>R3813-AAGGTAGCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGGTAGCACGTCTCGTGGGCTCGG</t>
+    <t>R3813-ACCAGTCAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCAGTCAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>R3814-TGGTCATCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGTCATCAGGTCTCGTGGGCTCGG</t>
+    <t>R3814-GTGAGCTGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGAGCTGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>R3815-AGATCGATCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGATCGATCGGTCTCGTGGGCTCGG</t>
+    <t>R3815-TGGATGTAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGATGTAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>R3816-TACCAGAACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACCAGAACCGTCTCGTGGGCTCGG</t>
+    <t>R3816-TGAGTCTCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGTCTCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>R3817-TAGAACTGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGAACTGACGTCTCGTGGGCTCGG</t>
+    <t>R3817-TGAGGACGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGGACGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>R3818-GAAGGTCACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGGTCACAGTCTCGTGGGCTCGG</t>
+    <t>R3818-AGACACATCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACACATCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>R3819-AGGACAACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGACAACCAGTCTCGTGGGCTCGG</t>
+    <t>R3819-CAAGCTACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGCTACTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>R3820-GTCTGGTTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCTGGTTCTGTCTCGTGGGCTCGG</t>
+    <t>R3820-TTCAAGCAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCAAGCAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>R3821-TACCTCGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACCTCGAGTGTCTCGTGGGCTCGG</t>
+    <t>R3821-AAGTAGGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTAGGACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>R3822-GGAGAGTTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGAGAGTTCTGTCTCGTGGGCTCGG</t>
+    <t>R3822-GAAGACTGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGACTGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>R3823-GTGCTACGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGCTACGTAGTCTCGTGGGCTCGG</t>
+    <t>R3823-CAGATCTGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGATCTGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>R3824-AGGAGTCGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGAGTCGTTGTCTCGTGGGCTCGG</t>
+    <t>R3824-TTGACTGGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGACTGGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>R3825-TTGTCCTGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGTCCTGATGTCTCGTGGGCTCGG</t>
+    <t>R3825-TACCATGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACCATGAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>R3826-ATCATCGTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCATCGTGCGTCTCGTGGGCTCGG</t>
+    <t>R3826-CTTGCTCACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTGCTCACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>R3827-GAGGTGTGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGGTGTGATGTCTCGTGGGCTCGG</t>
+    <t>R3827-TAGTGAGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTGAGACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>R3828-CTGTGTCGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGTGTCGATGTCTCGTGGGCTCGG</t>
+    <t>R3828-AGACTACATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACTACATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>R3829-GCTACACTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTACACTCTGTCTCGTGGGCTCGG</t>
+    <t>R3829-GTTGTGATCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTGTGATCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R3830-CTTGCATGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTGCATGACGTCTCGTGGGCTCGG</t>
+    <t>R3830-GGAAGGACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGAAGGACAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R3831-GTGTAGTCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTAGTCAAGTCTCGTGGGCTCGG</t>
+    <t>R3831-AGTTCTCGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTTCTCGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R3832-GACGACTCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACGACTCAAGTCTCGTGGGCTCGG</t>
+    <t>R3832-ACATGTGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACATGTGTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R3833-ACTCACACTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCACACTCGTCTCGTGGGCTCGG</t>
+    <t>R3833-ACCTAGAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTAGAGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R3834-TGAGGAACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGGAACCAGTCTCGTGGGCTCGG</t>
+    <t>R3834-ACTCTCCTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCTCCTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R3835-CAACGAACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACGAACCTGTCTCGTGGGCTCGG</t>
+    <t>R3835-GGAGTACCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGAGTACCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R3836-ATGTACCTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGTACCTGCGTCTCGTGGGCTCGG</t>
+    <t>R3836-GCACTAGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCACTAGTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R3837-CTCTCTACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCTCTACACGTCTCGTGGGCTCGG</t>
+    <t>R3837-CCAAGACTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCAAGACTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R3838-CTTGAAGCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTGAAGCTGGTCTCGTGGGCTCGG</t>
+    <t>R3838-CTACTCACGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACTCACGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R3839-CACGACTTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACGACTTCAGTCTCGTGGGCTCGG</t>
+    <t>R3839-TGCTCAAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCTCAAGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R3840-CCAGTCTTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCAGTCTTCAGTCTCGTGGGCTCGG</t>
+    <t>R3840-CAAGGAACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGGAACGAGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
